--- a/StoryBreakdown_Y.xlsx
+++ b/StoryBreakdown_Y.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\213532608\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Homework\Ontologies\Ontologies\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>Title</t>
   </si>
@@ -613,16 +613,10 @@
     <t>She replied, "Certainly I will. Follow me to my village and I will give you as much as you can eat.</t>
   </si>
   <si>
-    <t>Gradually it ate up all th grain in the village.</t>
-  </si>
-  <si>
     <t>The monster asked her for more food, saying it's hunger was not nearly satisfied.</t>
   </si>
   <si>
     <t>The python then started eating the men, woman and children of the village.</t>
-  </si>
-  <si>
-    <t>The woman, who was sitting near her house, hearing a noise, looked up and saw the monster approaching.  Seizing both her children in her arm, she fled and hid herself.</t>
   </si>
   <si>
     <t>She told them to bring their swords and, taking them to a path near the house, hid them in the bushes close to the path.</t>
@@ -657,6 +651,9 @@
   </si>
   <si>
     <t>γ2DEFJ ↓ W</t>
+  </si>
+  <si>
+    <t>Gradually it ate up all the grain in the village.</t>
   </si>
 </sst>
 </file>
@@ -1071,14 +1068,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C178" sqref="C178"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.140625"/>
-    <col min="2" max="2" width="39.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="58.42578125" customWidth="1"/>
+    <col min="2" max="2" width="36" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="76" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1101,7 +1098,7 @@
         <v>180</v>
       </c>
       <c r="C2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1131,10 +1128,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1301,7 +1298,7 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -1329,7 +1326,7 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -1362,7 +1359,7 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -1450,89 +1447,86 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
       <c r="B70" s="5"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>184</v>
       </c>
-      <c r="C72" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>79</v>
       </c>
@@ -1668,7 +1662,7 @@
         <v>104</v>
       </c>
       <c r="C105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -1754,7 +1748,7 @@
         <v>120</v>
       </c>
       <c r="C121" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -1839,7 +1833,7 @@
         <v>136</v>
       </c>
       <c r="C137" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
